--- a/Config_Opt.xlsx
+++ b/Config_Opt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\DispatchOptimisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64E6899-F852-4CD3-8C21-B26F2B113AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1DA5D6-6859-4097-8024-552351663FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>tc={FD47B922-617A-4CE9-9A29-2AA86E59E027}</author>
   </authors>
   <commentList>
-    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{FD47B922-617A-4CE9-9A29-2AA86E59E027}">
+    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{FD47B922-617A-4CE9-9A29-2AA86E59E027}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="41">
   <si>
     <t>None</t>
   </si>
@@ -150,6 +150,33 @@
   </si>
   <si>
     <t>CO2Price</t>
+  </si>
+  <si>
+    <t>Capital_cost_per_module</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>TPS</t>
+  </si>
+  <si>
+    <t>Cost_operational</t>
+  </si>
+  <si>
+    <t>lifeTime</t>
+  </si>
+  <si>
+    <t>discountRate</t>
   </si>
 </sst>
 </file>
@@ -197,12 +224,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,7 +519,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B36" dT="2025-04-16T13:29:31.62" personId="{1F839A28-F10F-4C3D-A139-3F4B571C074D}" id="{FD47B922-617A-4CE9-9A29-2AA86E59E027}">
+  <threadedComment ref="B43" dT="2025-04-16T13:29:31.62" personId="{1F839A28-F10F-4C3D-A139-3F4B571C074D}" id="{FD47B922-617A-4CE9-9A29-2AA86E59E027}">
     <text>We have it in simulink but we need a value not vector</text>
   </threadedComment>
 </ThreadedComments>
@@ -497,21 +527,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -525,7 +555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -539,7 +569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -553,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -567,7 +597,7 @@
         <v>10000000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -581,7 +611,7 @@
         <v>10000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -595,35 +625,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -631,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -645,13 +675,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -659,13 +689,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -673,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -687,55 +717,55 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D16" s="1">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -743,13 +773,13 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -757,13 +787,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -771,13 +801,13 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D19" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -785,69 +815,69 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1">
-        <v>286.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -855,13 +885,14 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57225</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -869,13 +900,13 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>286.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -883,83 +914,83 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D32" s="1">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -967,13 +998,14 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17015</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -981,94 +1013,304 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D40" s="1">
         <v>6.1500000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>21</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B41" t="s">
         <v>22</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="3">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D42" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>21</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B43" t="s">
         <v>22</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C43" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D43" s="1">
         <v>0.38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C44" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D44" s="1">
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C45" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D45" s="1">
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C46" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D47" s="1">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="1">
+        <v>6250000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="1">
+        <v>150000</v>
       </c>
     </row>
   </sheetData>

--- a/Config_Opt.xlsx
+++ b/Config_Opt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1DA5D6-6859-4097-8024-552351663FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D548789B-9072-459B-BFF4-F8B2CA125F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,24 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={FD47B922-617A-4CE9-9A29-2AA86E59E027}</author>
-  </authors>
-  <commentList>
-    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{FD47B922-617A-4CE9-9A29-2AA86E59E027}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    We have it in simulink but we need a value not vector</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -251,9 +233,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Seyede Zahra Tajalli" id="{1F839A28-F10F-4C3D-A139-3F4B571C074D}" userId="S::szata@dtu.dk::da0ba331-e30a-494d-a39e-97e2ea5f4a1a" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -517,31 +497,23 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B43" dT="2025-04-16T13:29:31.62" personId="{1F839A28-F10F-4C3D-A139-3F4B571C074D}" id="{FD47B922-617A-4CE9-9A29-2AA86E59E027}">
-    <text>We have it in simulink but we need a value not vector</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -555,7 +527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -569,7 +541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -583,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -597,7 +569,7 @@
         <v>10000000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -611,7 +583,7 @@
         <v>10000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -625,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -639,7 +611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -653,7 +625,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -667,7 +639,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -681,7 +653,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -695,7 +667,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -709,7 +681,7 @@
         <v>28700</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -723,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -737,7 +709,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -751,7 +723,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -765,7 +737,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -779,7 +751,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -793,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -807,7 +779,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -821,7 +793,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -835,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -849,7 +821,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -863,7 +835,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -877,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -892,7 +864,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -906,7 +878,7 @@
         <v>286.25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -920,7 +892,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -934,7 +906,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -948,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -962,7 +934,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -976,7 +948,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -990,7 +962,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1005,7 +977,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1019,7 +991,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -1033,7 +1005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1047,7 +1019,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -1061,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -1075,7 +1047,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1089,7 +1061,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1103,21 +1075,21 @@
         <v>6.1500000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -1131,21 +1103,21 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="1">
         <v>0.38</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1131,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1145,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1173,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -1215,7 +1187,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -1229,7 +1201,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -1243,7 +1215,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -1257,7 +1229,7 @@
         <v>6250000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -1271,7 +1243,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -1285,7 +1257,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -1299,7 +1271,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -1317,6 +1289,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config_Opt.xlsx
+++ b/Config_Opt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D548789B-9072-459B-BFF4-F8B2CA125F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48881C1E-EAA0-4B3F-8DCD-D5C2E5C58191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,10 +230,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -664,7 +660,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="1">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1002,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="1">
-        <v>80</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1016,7 +1012,7 @@
         <v>12</v>
       </c>
       <c r="D36" s="1">
-        <v>80</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">

--- a/Config_Opt.xlsx
+++ b/Config_Opt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48881C1E-EAA0-4B3F-8DCD-D5C2E5C58191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171751B8-E418-4EDE-A563-D8A3ABE5CA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -215,6 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,7 +1107,7 @@
       <c r="B43" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="1">
@@ -1120,7 +1121,7 @@
       <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="1">
@@ -1134,7 +1135,7 @@
       <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="1">
@@ -1148,7 +1149,7 @@
       <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="1">
@@ -1162,7 +1163,7 @@
       <c r="B47" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="1">

--- a/Config_Opt.xlsx
+++ b/Config_Opt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171751B8-E418-4EDE-A563-D8A3ABE5CA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EED013-B51F-4262-A5E0-321AE463EC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,7 +189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,11 +211,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,572 +513,572 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>10000000000000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>10000000000000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>3.41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>28700</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>2E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>100000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>57225</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <v>286.25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <v>0.65</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <v>0.65</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="3">
         <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="3">
         <v>17015</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="3">
         <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3">
         <v>0.8</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="3">
         <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="3">
         <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="3">
         <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="3">
         <v>6.1500000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1087,198 +1089,198 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="3">
         <v>0.38</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="3">
         <v>0.20200000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="3">
         <v>0.35399999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="3">
         <v>0.01</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="3">
         <v>6000000</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="3">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="3">
         <v>6250000</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="3">
         <v>2000000</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="3">
         <v>0.01</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="3">
         <v>150000</v>
       </c>
     </row>

--- a/Config_Opt.xlsx
+++ b/Config_Opt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams_final\HES-REC-RC_ConfigInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EED013-B51F-4262-A5E0-321AE463EC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2038C6B8-CDF7-4CCC-A3E8-044EAE4DC33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -206,13 +206,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -501,786 +497,786 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>10000000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>10000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>3.41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D13" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D14" s="1">
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D15" s="1">
         <v>0.95</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D16" s="1">
         <v>28700</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D18" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D19" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D20" s="1">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D21" s="1">
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D23" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C24" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D24" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C25" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C26" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D26" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D27" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C29" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D29" s="1">
         <v>57225</v>
       </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D30" s="1">
         <v>286.25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D31" s="1">
         <v>0.65</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C32" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D32" s="1">
         <v>0.65</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C33" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C34" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D34" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C35" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D35" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C36" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D36" s="1">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B37" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C37" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D37" s="1">
         <v>17015</v>
       </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B38" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C38" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D38" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B39" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C39" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D39" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B40" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C40" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D40" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B41" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C41" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B42" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C42" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D42" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B43" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C43" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D43" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B44" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C44" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D44" s="1">
         <v>6.1500000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B45" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C45" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D45" s="1">
         <v>18000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B46" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C46" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D46" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B47" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C47" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D47" s="1">
         <v>0.38</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="1">
         <v>6000000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="1">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="1">
         <v>6250000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="1">
         <v>2000000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="1">
         <v>150000</v>
       </c>
     </row>
